--- a/biology/Zoologie/Cephalodiscidae/Cephalodiscidae.xlsx
+++ b/biology/Zoologie/Cephalodiscidae/Cephalodiscidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephalodiscidae sont une famille d'animaux ptérobranches de l'ordre des Cephalodiscida.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le WoRMS[1] attribue la famille des Cephalodiscidae, en date de 1905, au zoologiste britannique Sidney Frederic Harmer (1862-1950)[2].
-En revanche, l’ITIS[3] l'attribue, en date de 1893, au zoologiste russe Vladimir Chimkevitch (1858-1923).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le WoRMS attribue la famille des Cephalodiscidae, en date de 1905, au zoologiste britannique Sidney Frederic Harmer (1862-1950).
+En revanche, l’ITIS l'attribue, en date de 1893, au zoologiste russe Vladimir Chimkevitch (1858-1923).
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 février 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 février 2022) :
 genre Cephalodiscus M'Intosh, 1882
 genre † Pterobranchites Kozlowski, 1967
-Selon BioLib                    (21 février 2022)[4] :
+Selon BioLib                    (21 février 2022) :
 genre † Acoelothecia John, 1931
 genre † Aellograptus Obut, 1964
 genre Atubaria Sato, 1936
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sidney F. Harmer et Siboga Expedition, « The Pterobranchia of the Siboga-expedition with an account of other species », Siboga-Expeditie, Leyde, Inconnu,‎ 1905 (OCLC 6860967, LCCN 05037141, DOI 10.5962/BHL.TITLE.11734)</t>
         </is>
